--- a/Mantenimiento/subidas/ejemplo_alumnos.xlsx
+++ b/Mantenimiento/subidas/ejemplo_alumnos.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{25C7A8F7-071E-424A-B0E0-52AD81B7C582}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,24 +20,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>alumno 2</t>
-  </si>
-  <si>
-    <t>alumno 1</t>
-  </si>
-  <si>
-    <t>alumno 3</t>
-  </si>
-  <si>
-    <t>alumno 4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>CUI</t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>JUEAN</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,45 +369,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>11111111</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>22222222</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>20123677</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>33333333</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>20113677</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>44444444</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>20143677</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
